--- a/biology/Histoire de la zoologie et de la botanique/Albert_Flamen/Albert_Flamen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Albert_Flamen/Albert_Flamen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Flamen (1620-1674)  est un graveur d'origine flamande.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Flamen exerce son art à Paris surtout à partir des années 1640. Il publie en 1648 les Devises et emblesmes d'amour moralisez, ouvrage emblématique qui sera réédité à plusieurs reprises (1650, 1653, 1666, 1672) et dont il avoue ne pas être l'auteur des deux textes qui accompagnent chacune des gravures élégantes qu'il a façonnées.
-Graveur de planches emblématiques pour La Vie symbolique du bienheureux François de Sales, Evesque et Prince de Geneve d'Adrien Gambart (Paris, 1664) et l'Orpheus Eucharisticus, sive Deus absconditus humanitatis illecebris illustriores d'Augustin Chesneau (Paris, 1657), il est surtout connu pour les nombreux volumes de planches illustrant les poissons de mer et d'eau douce et les oiseaux de France. Il grava également plusieurs séries de planches dévotes aussi bien que des plans de Paris et des gravures d'occasion[1],[2].
+Graveur de planches emblématiques pour La Vie symbolique du bienheureux François de Sales, Evesque et Prince de Geneve d'Adrien Gambart (Paris, 1664) et l'Orpheus Eucharisticus, sive Deus absconditus humanitatis illecebris illustriores d'Augustin Chesneau (Paris, 1657), il est surtout connu pour les nombreux volumes de planches illustrant les poissons de mer et d'eau douce et les oiseaux de France. Il grava également plusieurs séries de planches dévotes aussi bien que des plans de Paris et des gravures d'occasion,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Devises et emblesmes d'amour moralisez. Gravez par Albert Flamen, Peintre demeurant au Faux-bourg S. Germain, ruë des Fossoyeurs. Paris: chez la veuve Jean Rémy, 1648.
 Les dix commandements de Dieu. Les cinq commandements de l'Église. 1648, s.p.
